--- a/results/Configuration Mismatch Analysis.xlsx
+++ b/results/Configuration Mismatch Analysis.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="17100" windowHeight="9030"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="17100" windowHeight="9030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
     <sheet name="Feature effects X86" sheetId="1" r:id="rId2"/>
-    <sheet name="Distinct list" sheetId="4" r:id="rId3"/>
+    <sheet name="Distinct list of variables" sheetId="4" r:id="rId3"/>
     <sheet name="color explanation" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1113">
   <si>
     <t>variable</t>
   </si>
@@ -3414,6 +3414,36 @@
   </si>
   <si>
     <t>Only m</t>
+  </si>
+  <si>
+    <t>Visibility (prompt)</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Invisible</t>
+  </si>
+  <si>
+    <t>Visible Boolean</t>
+  </si>
+  <si>
+    <t>Invisible Boolean</t>
+  </si>
+  <si>
+    <t>Visible Tristate</t>
+  </si>
+  <si>
+    <t>Invisible Tristate</t>
+  </si>
+  <si>
+    <t>Visibility &amp; Type</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -3828,7 +3858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -4478,6 +4508,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4525,7 +4615,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -4727,6 +4817,16 @@
     <xf numFmtId="0" fontId="16" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5073,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6041,10 +6141,10 @@
   <dimension ref="A1:P249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M84" sqref="M84"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14838,18 +14938,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="100" t="s">
         <v>1092</v>
       </c>
@@ -14859,8 +14960,11 @@
       <c r="C1" s="100" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="100" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
@@ -14870,8 +14974,12 @@
       <c r="C2" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>LOOKUP(A2,'Feature effects X86'!A2:A248,'Feature effects X86'!F2:F248)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -14881,8 +14989,12 @@
       <c r="C3" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="18" t="str">
+        <f>LOOKUP(A3,'Feature effects X86'!A3:A249,'Feature effects X86'!F3:F249)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
@@ -14892,8 +15004,12 @@
       <c r="C4" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="18" t="str">
+        <f>LOOKUP(A4,'Feature effects X86'!A4:A250,'Feature effects X86'!F4:F250)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -14903,8 +15019,12 @@
       <c r="C5" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="str">
+        <f>LOOKUP(A5,'Feature effects X86'!A5:A251,'Feature effects X86'!F5:F251)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
@@ -14914,8 +15034,12 @@
       <c r="C6" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="18" t="str">
+        <f>LOOKUP(A6,'Feature effects X86'!A6:A252,'Feature effects X86'!F6:F252)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
@@ -14925,8 +15049,12 @@
       <c r="C7" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="18" t="str">
+        <f>LOOKUP(A7,'Feature effects X86'!A7:A253,'Feature effects X86'!F7:F253)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>56</v>
       </c>
@@ -14936,8 +15064,12 @@
       <c r="C8" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="18" t="str">
+        <f>LOOKUP(A8,'Feature effects X86'!A8:A254,'Feature effects X86'!F8:F254)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>80</v>
       </c>
@@ -14947,8 +15079,12 @@
       <c r="C9" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="str">
+        <f>LOOKUP(A9,'Feature effects X86'!A9:A255,'Feature effects X86'!F9:F255)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>88</v>
       </c>
@@ -14958,8 +15094,12 @@
       <c r="C10" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="18" t="str">
+        <f>LOOKUP(A10,'Feature effects X86'!A10:A256,'Feature effects X86'!F10:F256)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>129</v>
       </c>
@@ -14969,8 +15109,12 @@
       <c r="C11" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="18" t="str">
+        <f>LOOKUP(A11,'Feature effects X86'!A11:A257,'Feature effects X86'!F11:F257)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>150</v>
       </c>
@@ -14980,8 +15124,12 @@
       <c r="C12" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="18" t="str">
+        <f>LOOKUP(A12,'Feature effects X86'!A12:A258,'Feature effects X86'!F12:F258)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>153</v>
       </c>
@@ -14991,8 +15139,12 @@
       <c r="C13" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="18" t="str">
+        <f>LOOKUP(A13,'Feature effects X86'!A13:A259,'Feature effects X86'!F13:F259)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>179</v>
       </c>
@@ -15002,8 +15154,12 @@
       <c r="C14" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="18" t="str">
+        <f>LOOKUP(A14,'Feature effects X86'!A14:A260,'Feature effects X86'!F14:F260)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>190</v>
       </c>
@@ -15013,8 +15169,12 @@
       <c r="C15" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="18" t="str">
+        <f>LOOKUP(A15,'Feature effects X86'!A15:A261,'Feature effects X86'!F15:F261)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>201</v>
       </c>
@@ -15024,8 +15184,12 @@
       <c r="C16" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="18" t="str">
+        <f>LOOKUP(A16,'Feature effects X86'!A16:A262,'Feature effects X86'!F16:F262)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>210</v>
       </c>
@@ -15035,8 +15199,12 @@
       <c r="C17" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="str">
+        <f>LOOKUP(A17,'Feature effects X86'!A17:A263,'Feature effects X86'!F17:F263)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>214</v>
       </c>
@@ -15046,8 +15214,12 @@
       <c r="C18" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="str">
+        <f>LOOKUP(A18,'Feature effects X86'!A18:A264,'Feature effects X86'!F18:F264)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>248</v>
       </c>
@@ -15057,8 +15229,12 @@
       <c r="C19" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="18" t="str">
+        <f>LOOKUP(A19,'Feature effects X86'!A19:A265,'Feature effects X86'!F19:F265)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>265</v>
       </c>
@@ -15068,8 +15244,12 @@
       <c r="C20" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="str">
+        <f>LOOKUP(A20,'Feature effects X86'!A20:A266,'Feature effects X86'!F20:F266)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>287</v>
       </c>
@@ -15079,8 +15259,12 @@
       <c r="C21" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="18" t="str">
+        <f>LOOKUP(A21,'Feature effects X86'!A21:A267,'Feature effects X86'!F21:F267)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>322</v>
       </c>
@@ -15090,8 +15274,12 @@
       <c r="C22" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="18" t="str">
+        <f>LOOKUP(A22,'Feature effects X86'!A22:A268,'Feature effects X86'!F22:F268)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>325</v>
       </c>
@@ -15101,8 +15289,12 @@
       <c r="C23" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="18" t="str">
+        <f>LOOKUP(A23,'Feature effects X86'!A23:A269,'Feature effects X86'!F23:F269)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>329</v>
       </c>
@@ -15112,8 +15304,12 @@
       <c r="C24" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="str">
+        <f>LOOKUP(A24,'Feature effects X86'!A24:A270,'Feature effects X86'!F24:F270)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>333</v>
       </c>
@@ -15123,8 +15319,12 @@
       <c r="C25" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="18" t="str">
+        <f>LOOKUP(A25,'Feature effects X86'!A25:A271,'Feature effects X86'!F25:F271)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>347</v>
       </c>
@@ -15134,8 +15334,12 @@
       <c r="C26" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="18" t="str">
+        <f>LOOKUP(A26,'Feature effects X86'!A26:A272,'Feature effects X86'!F26:F272)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>354</v>
       </c>
@@ -15145,8 +15349,12 @@
       <c r="C27" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="18" t="str">
+        <f>LOOKUP(A27,'Feature effects X86'!A27:A273,'Feature effects X86'!F27:F273)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>368</v>
       </c>
@@ -15156,8 +15364,12 @@
       <c r="C28" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="18" t="str">
+        <f>LOOKUP(A28,'Feature effects X86'!A28:A274,'Feature effects X86'!F28:F274)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>387</v>
       </c>
@@ -15167,8 +15379,12 @@
       <c r="C29" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="18" t="str">
+        <f>LOOKUP(A29,'Feature effects X86'!A29:A275,'Feature effects X86'!F29:F275)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>413</v>
       </c>
@@ -15178,8 +15394,12 @@
       <c r="C30" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="18" t="str">
+        <f>LOOKUP(A30,'Feature effects X86'!A30:A276,'Feature effects X86'!F30:F276)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>416</v>
       </c>
@@ -15189,8 +15409,12 @@
       <c r="C31" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="18" t="str">
+        <f>LOOKUP(A31,'Feature effects X86'!A31:A277,'Feature effects X86'!F31:F277)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>419</v>
       </c>
@@ -15200,8 +15424,12 @@
       <c r="C32" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="str">
+        <f>LOOKUP(A32,'Feature effects X86'!A32:A278,'Feature effects X86'!F32:F278)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>423</v>
       </c>
@@ -15211,8 +15439,12 @@
       <c r="C33" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="str">
+        <f>LOOKUP(A33,'Feature effects X86'!A33:A279,'Feature effects X86'!F33:F279)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>426</v>
       </c>
@@ -15222,8 +15454,12 @@
       <c r="C34" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="18" t="str">
+        <f>LOOKUP(A34,'Feature effects X86'!A34:A280,'Feature effects X86'!F34:F280)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>429</v>
       </c>
@@ -15233,8 +15469,12 @@
       <c r="C35" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="18" t="str">
+        <f>LOOKUP(A35,'Feature effects X86'!A35:A281,'Feature effects X86'!F35:F281)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>435</v>
       </c>
@@ -15244,8 +15484,12 @@
       <c r="C36" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="18" t="str">
+        <f>LOOKUP(A36,'Feature effects X86'!A36:A282,'Feature effects X86'!F36:F282)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>439</v>
       </c>
@@ -15255,8 +15499,12 @@
       <c r="C37" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="str">
+        <f>LOOKUP(A37,'Feature effects X86'!A37:A283,'Feature effects X86'!F37:F283)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>442</v>
       </c>
@@ -15266,8 +15514,12 @@
       <c r="C38" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="18" t="str">
+        <f>LOOKUP(A38,'Feature effects X86'!A38:A284,'Feature effects X86'!F38:F284)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>445</v>
       </c>
@@ -15277,8 +15529,12 @@
       <c r="C39" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="18" t="str">
+        <f>LOOKUP(A39,'Feature effects X86'!A39:A285,'Feature effects X86'!F39:F285)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>449</v>
       </c>
@@ -15288,8 +15544,12 @@
       <c r="C40" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="18" t="str">
+        <f>LOOKUP(A40,'Feature effects X86'!A40:A286,'Feature effects X86'!F40:F286)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>452</v>
       </c>
@@ -15299,8 +15559,12 @@
       <c r="C41" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="18" t="str">
+        <f>LOOKUP(A41,'Feature effects X86'!A41:A287,'Feature effects X86'!F41:F287)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>458</v>
       </c>
@@ -15310,8 +15574,12 @@
       <c r="C42" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="18" t="str">
+        <f>LOOKUP(A42,'Feature effects X86'!A42:A288,'Feature effects X86'!F42:F288)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>478</v>
       </c>
@@ -15321,8 +15589,12 @@
       <c r="C43" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="18" t="str">
+        <f>LOOKUP(A43,'Feature effects X86'!A43:A289,'Feature effects X86'!F43:F289)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>487</v>
       </c>
@@ -15332,8 +15604,12 @@
       <c r="C44" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="18" t="str">
+        <f>LOOKUP(A44,'Feature effects X86'!A44:A290,'Feature effects X86'!F44:F290)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="40" t="s">
         <v>491</v>
       </c>
@@ -15343,8 +15619,12 @@
       <c r="C45" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="18" t="str">
+        <f>LOOKUP(A45,'Feature effects X86'!A45:A291,'Feature effects X86'!F45:F291)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>614</v>
       </c>
@@ -15354,8 +15634,12 @@
       <c r="C46" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="18" t="str">
+        <f>LOOKUP(A46,'Feature effects X86'!A46:A292,'Feature effects X86'!F46:F292)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>618</v>
       </c>
@@ -15365,8 +15649,12 @@
       <c r="C47" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="18" t="str">
+        <f>LOOKUP(A47,'Feature effects X86'!A47:A293,'Feature effects X86'!F47:F293)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>621</v>
       </c>
@@ -15376,8 +15664,12 @@
       <c r="C48" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="18" t="str">
+        <f>LOOKUP(A48,'Feature effects X86'!A48:A294,'Feature effects X86'!F48:F294)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>637</v>
       </c>
@@ -15387,8 +15679,12 @@
       <c r="C49" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="18" t="str">
+        <f>LOOKUP(A49,'Feature effects X86'!A49:A295,'Feature effects X86'!F49:F295)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>641</v>
       </c>
@@ -15398,8 +15694,12 @@
       <c r="C50" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="18" t="str">
+        <f>LOOKUP(A50,'Feature effects X86'!A50:A296,'Feature effects X86'!F50:F296)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>644</v>
       </c>
@@ -15409,8 +15709,12 @@
       <c r="C51" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="18" t="str">
+        <f>LOOKUP(A51,'Feature effects X86'!A51:A297,'Feature effects X86'!F51:F297)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>657</v>
       </c>
@@ -15420,8 +15724,12 @@
       <c r="C52" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="18" t="str">
+        <f>LOOKUP(A52,'Feature effects X86'!A52:A298,'Feature effects X86'!F52:F298)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>683</v>
       </c>
@@ -15431,8 +15739,12 @@
       <c r="C53" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="18" t="str">
+        <f>LOOKUP(A53,'Feature effects X86'!A53:A299,'Feature effects X86'!F53:F299)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>687</v>
       </c>
@@ -15442,8 +15754,12 @@
       <c r="C54" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="18" t="str">
+        <f>LOOKUP(A54,'Feature effects X86'!A54:A300,'Feature effects X86'!F54:F300)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>715</v>
       </c>
@@ -15453,8 +15769,12 @@
       <c r="C55" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="18" t="str">
+        <f>LOOKUP(A55,'Feature effects X86'!A55:A301,'Feature effects X86'!F55:F301)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>721</v>
       </c>
@@ -15464,8 +15784,12 @@
       <c r="C56" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="18" t="str">
+        <f>LOOKUP(A56,'Feature effects X86'!A56:A302,'Feature effects X86'!F56:F302)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>738</v>
       </c>
@@ -15475,8 +15799,12 @@
       <c r="C57" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="18" t="str">
+        <f>LOOKUP(A57,'Feature effects X86'!A57:A303,'Feature effects X86'!F57:F303)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>747</v>
       </c>
@@ -15486,8 +15814,12 @@
       <c r="C58" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="18" t="str">
+        <f>LOOKUP(A58,'Feature effects X86'!A58:A304,'Feature effects X86'!F58:F304)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
         <v>756</v>
       </c>
@@ -15497,8 +15829,12 @@
       <c r="C59" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="18" t="str">
+        <f>LOOKUP(A59,'Feature effects X86'!A59:A305,'Feature effects X86'!F59:F305)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="40" t="s">
         <v>764</v>
       </c>
@@ -15508,8 +15844,12 @@
       <c r="C60" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="18" t="str">
+        <f>LOOKUP(A60,'Feature effects X86'!A60:A306,'Feature effects X86'!F60:F306)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>771</v>
       </c>
@@ -15519,8 +15859,12 @@
       <c r="C61" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="18" t="str">
+        <f>LOOKUP(A61,'Feature effects X86'!A61:A307,'Feature effects X86'!F61:F307)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="40" t="s">
         <v>800</v>
       </c>
@@ -15530,8 +15874,12 @@
       <c r="C62" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="18" t="str">
+        <f>LOOKUP(A62,'Feature effects X86'!A62:A308,'Feature effects X86'!F62:F308)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>804</v>
       </c>
@@ -15541,8 +15889,12 @@
       <c r="C63" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="18" t="str">
+        <f>LOOKUP(A63,'Feature effects X86'!A63:A309,'Feature effects X86'!F63:F309)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>826</v>
       </c>
@@ -15552,8 +15904,12 @@
       <c r="C64" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="18" t="str">
+        <f>LOOKUP(A64,'Feature effects X86'!A64:A310,'Feature effects X86'!F64:F310)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>830</v>
       </c>
@@ -15563,8 +15919,12 @@
       <c r="C65" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="18" t="str">
+        <f>LOOKUP(A65,'Feature effects X86'!A65:A311,'Feature effects X86'!F65:F311)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>863</v>
       </c>
@@ -15574,8 +15934,12 @@
       <c r="C66" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="18" t="str">
+        <f>LOOKUP(A66,'Feature effects X86'!A66:A312,'Feature effects X86'!F66:F312)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
         <v>867</v>
       </c>
@@ -15585,8 +15949,12 @@
       <c r="C67" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="18" t="str">
+        <f>LOOKUP(A67,'Feature effects X86'!A67:A313,'Feature effects X86'!F67:F313)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>871</v>
       </c>
@@ -15596,8 +15964,12 @@
       <c r="C68" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="18" t="str">
+        <f>LOOKUP(A68,'Feature effects X86'!A68:A314,'Feature effects X86'!F68:F314)</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>902</v>
       </c>
@@ -15607,47 +15979,167 @@
       <c r="C69" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D69" s="18" t="str">
+        <f>LOOKUP(A69,'Feature effects X86'!A69:A315,'Feature effects X86'!F69:F315)</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="128" t="s">
         <v>1093</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="129" t="s">
         <v>1101</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="130" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="122" t="s">
         <v>1099</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="121">
         <f>COUNTIF(B$2:B$69,"bool")</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C76" s="123"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="122" t="s">
         <v>1100</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="121">
         <f>COUNTIF(B$2:B$69,"tristate")</f>
         <v>14</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="123">
         <f>COUNTIF(C$2:C$69,"m")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="124">
         <f>SUM(B76:B77)</f>
         <v>68</v>
+      </c>
+      <c r="C78" s="21"/>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="128" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B82" s="130" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="122" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B83" s="123">
+        <f>COUNTIF(D$2:D$69,"yes")</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="122" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B84" s="123">
+        <f>COUNTIF(D$2:D$69,"no")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B85" s="21">
+        <f>SUM(B83:B84)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="128" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B87" s="129" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C87" s="130" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="125" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B88" s="121">
+        <f>COUNTIFS(B$2:B$69,"bool",D$2:D$69,"yes")</f>
+        <v>44</v>
+      </c>
+      <c r="C88" s="24">
+        <f>B88/B$92</f>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="125" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B89" s="121">
+        <f>COUNTIFS(B$2:B$69,"bool",D$2:D$69,"no")</f>
+        <v>10</v>
+      </c>
+      <c r="C89" s="24">
+        <f t="shared" ref="C89:C91" si="0">B89/B$92</f>
+        <v>0.14705882352941177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="125" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B90" s="121">
+        <f>COUNTIFS(B$2:B$69,"tristate",D$2:D$69,"yes")</f>
+        <v>12</v>
+      </c>
+      <c r="C90" s="24">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="125" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B91" s="121">
+        <f>COUNTIFS(B$2:B$69,"tristate",D$2:D$69,"no")</f>
+        <v>2</v>
+      </c>
+      <c r="C91" s="24">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="126" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B92" s="124">
+        <f>SUM(B88:B91)</f>
+        <v>68</v>
+      </c>
+      <c r="C92" s="127">
+        <f>SUM(C88:C91)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
